--- a/medicine/Sexualité et sexologie/Position_de_l'enclume/Position_de_l'enclume.xlsx
+++ b/medicine/Sexualité et sexologie/Position_de_l'enclume/Position_de_l'enclume.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Position_de_l%27enclume</t>
+          <t>Position_de_l'enclume</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La position de l'enclume est une position sexuelle, variante du missionnaire.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Position_de_l%27enclume</t>
+          <t>Position_de_l'enclume</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La femme se présente sur le dos et fait reposer ses jambes sur les épaules de l'homme[1] qui se positionne face à elle, et fait reposer son poids sur ses bras pour ne pas trop peser sur sa partenaire. L'homme peut également repousser les jambes de la femme vers le bas avec ses épaules afin d'accroître le plaisir et l'intensité de la pénétration.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La femme se présente sur le dos et fait reposer ses jambes sur les épaules de l'homme qui se positionne face à elle, et fait reposer son poids sur ses bras pour ne pas trop peser sur sa partenaire. L'homme peut également repousser les jambes de la femme vers le bas avec ses épaules afin d'accroître le plaisir et l'intensité de la pénétration.
 La pénétration est vive et profonde, entraînant des sensations très intenses pour les deux partenaires.
 Cette position peut aussi être pratiquée par deux hommes dans une relation homosexuelle ou par deux femmes à l'aide d'un gode ceinture.
 </t>
